--- a/data/TSLA_weekly_return_updated.xlsx
+++ b/data/TSLA_weekly_return_updated.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhicq/GitHub/FastIsSlow/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{43820EC4-54D7-C849-9A17-7A955505628F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A16574-7C8D-584F-BBDF-C9202FC072CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="15760" windowHeight="18900"/>
+    <workbookView xWindow="7240" yWindow="760" windowWidth="15760" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TSLA_weekly_return_updated" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -36,11 +36,26 @@
   <si>
     <t>Earnings Date</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>covid</t>
+  </si>
+  <si>
+    <t>QE</t>
+  </si>
+  <si>
+    <t>breaking new high</t>
+  </si>
+  <si>
+    <t>轧多回调</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -890,12 +905,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E684"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F192" sqref="F192"/>
+    <sheetView tabSelected="1" topLeftCell="A523" zoomScale="308" workbookViewId="0">
+      <selection activeCell="C559" sqref="C559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4317,6 +4332,9 @@
       <c r="B423" s="3">
         <v>17.1579446799919</v>
       </c>
+      <c r="C423" t="s">
+        <v>4</v>
+      </c>
       <c r="E423" s="1">
         <v>44403</v>
       </c>
@@ -4416,6 +4434,9 @@
       <c r="B435" s="3">
         <v>27.269234789941098</v>
       </c>
+      <c r="C435" t="s">
+        <v>4</v>
+      </c>
       <c r="E435" s="1">
         <v>44312</v>
       </c>
@@ -4835,6 +4856,9 @@
       <c r="B487" s="3">
         <v>27.701898873432398</v>
       </c>
+      <c r="C487" t="s">
+        <v>4</v>
+      </c>
       <c r="E487" s="1">
         <v>44223</v>
       </c>
@@ -4950,6 +4974,9 @@
       <c r="B501" s="3">
         <v>15.1818285898</v>
       </c>
+      <c r="C501" t="s">
+        <v>4</v>
+      </c>
       <c r="E501" s="1">
         <v>44125</v>
       </c>
@@ -5017,6 +5044,9 @@
       <c r="B509" s="3">
         <v>20.309686326935399</v>
       </c>
+      <c r="C509" t="s">
+        <v>5</v>
+      </c>
       <c r="E509" s="1">
         <v>44034</v>
       </c>
@@ -5036,6 +5066,9 @@
       <c r="B511" s="3">
         <v>19.372511223828202</v>
       </c>
+      <c r="C511" t="s">
+        <v>5</v>
+      </c>
       <c r="E511" s="1">
         <v>43950</v>
       </c>
@@ -5047,6 +5080,9 @@
       <c r="B512" s="3">
         <v>31.5689363463629</v>
       </c>
+      <c r="C512" t="s">
+        <v>5</v>
+      </c>
       <c r="E512" s="1">
         <v>43859</v>
       </c>
@@ -5074,6 +5110,9 @@
       <c r="B515" s="3">
         <v>16.839673645399799</v>
       </c>
+      <c r="C515" t="s">
+        <v>6</v>
+      </c>
       <c r="E515" s="1">
         <v>43761</v>
       </c>
@@ -5450,6 +5489,9 @@
       <c r="B559" s="3">
         <v>16.018061429945799</v>
       </c>
+      <c r="C559" t="s">
+        <v>8</v>
+      </c>
       <c r="E559" s="1">
         <v>43040</v>
       </c>
@@ -5717,6 +5759,9 @@
       <c r="B592" s="3">
         <v>22.460654134975801</v>
       </c>
+      <c r="C592" t="s">
+        <v>7</v>
+      </c>
       <c r="E592" s="1">
         <v>42949</v>
       </c>
@@ -6240,6 +6285,9 @@
       <c r="B657" s="3">
         <v>33.338327587143198</v>
       </c>
+      <c r="C657" t="s">
+        <v>4</v>
+      </c>
       <c r="E657" s="1">
         <v>42858</v>
       </c>
@@ -6449,7 +6497,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B680">
+  <autoFilter ref="A1:B680" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <customFilters>
         <customFilter operator="greaterThan" val="15"/>
